--- a/pscr_point_cloud_city/docs/PCC - Memphis and Enfield - Classes and Labels.xlsx
+++ b/pscr_point_cloud_city/docs/PCC - Memphis and Enfield - Classes and Labels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nistgov.sharepoint.com/sites/PSCRLBS/Shared Documents/Future of Pre-Incident Planning/Task 2/PCC Dataset Combination/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adimopoulos\Documents\GitHub\Open3D-ML_Point_Cloud_City\pscr_point_cloud_city\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{FE46AD7C-EBB6-4D59-9349-92DBB675469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01CA20D9-CB07-4AE0-83C5-4411EA97F6A4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11283413-E60D-4C6C-8F31-8E5D795FE12A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8731487-9D78-47E9-8259-07E976F5AF07}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -643,7 +632,7 @@
   <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2106,6 +2095,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f00097ae-ed0f-47a8-86e7-82ff6c25ad7d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c498b88-a6e6-4f76-b471-9fbefa43f94e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F622065C85AB24C9D46D50A06CA3771" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ae27658f4e2bcb706097248c56f81a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c498b88-a6e6-4f76-b471-9fbefa43f94e" xmlns:ns3="f00097ae-ed0f-47a8-86e7-82ff6c25ad7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d67cf466eac81a8f0d322d1bbe19a94f" ns2:_="" ns3:_="">
     <xsd:import namespace="3c498b88-a6e6-4f76-b471-9fbefa43f94e"/>
@@ -2334,27 +2343,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f00097ae-ed0f-47a8-86e7-82ff6c25ad7d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c498b88-a6e6-4f76-b471-9fbefa43f94e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5031E0A0-D056-49DC-85A2-E4B9C47C495D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFBE61A-E523-4E79-86D0-B38A9CCBF305}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f00097ae-ed0f-47a8-86e7-82ff6c25ad7d"/>
+    <ds:schemaRef ds:uri="3c498b88-a6e6-4f76-b471-9fbefa43f94e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB009E00-B71D-4480-86A3-97AF6E180BF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2371,23 +2379,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBFBE61A-E523-4E79-86D0-B38A9CCBF305}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f00097ae-ed0f-47a8-86e7-82ff6c25ad7d"/>
-    <ds:schemaRef ds:uri="3c498b88-a6e6-4f76-b471-9fbefa43f94e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5031E0A0-D056-49DC-85A2-E4B9C47C495D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>